--- a/SwitchOptions/РАСПИНОВКА_ИНТЕРФЕЙСА_БЛОКА_УПРАВЛЕНИЯ.xlsx
+++ b/SwitchOptions/РАСПИНОВКА_ИНТЕРФЕЙСА_БЛОКА_УПРАВЛЕНИЯ.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home-project\vuejs\curs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fontg\OneDrive\Desktop\diplom\SwitchOptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D380C-CA5B-4E81-A9A9-0E5615E8A6AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Название устройства</t>
   </si>
@@ -63,9 +63,6 @@
     <t>ДУ</t>
   </si>
   <si>
-    <t>сиреневый</t>
-  </si>
-  <si>
     <t>А2</t>
   </si>
   <si>
@@ -109,12 +106,78 @@
   </si>
   <si>
     <t>РАСПИНОВКА ИНТЕРФЕЙСА БЛОКА УПРАВЛЕНИЯ</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Кнопка</t>
+  </si>
+  <si>
+    <t>экран</t>
+  </si>
+  <si>
+    <t>SLC</t>
+  </si>
+  <si>
+    <t>фиолетовый</t>
+  </si>
+  <si>
+    <t>VGA ports</t>
+  </si>
+  <si>
+    <t>VGA</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t>ОРАНЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>СИНИЙ</t>
+  </si>
+  <si>
+    <t>КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t>БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t>РЕЛЕ ЦЕНТРАЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t>ШИНА +5 В</t>
+  </si>
+  <si>
+    <t>ЗЕМЛЯ БЛОКА ПИТАНИЯ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -195,6 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -203,6 +267,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,12 +569,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -521,7 +591,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -535,7 +605,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,21 +617,21 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -569,59 +639,59 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -634,4 +704,375 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="3">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B8" si="0">B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="1">F2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3">
+        <f>B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3">
+        <f t="shared" ref="B11:B19" si="2">B10+1</f>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3">
+        <f>B19+1</f>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="A9:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>